--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value944.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value944.xlsx
@@ -354,10 +354,10 @@
         <v>1.848317143632434</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>0.9934017226822899</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value944.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value944.xlsx
@@ -348,10 +348,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.228152220204374</v>
+        <v>1.016144633293152</v>
       </c>
       <c r="B1">
-        <v>1.848317143632434</v>
+        <v>1.579953551292419</v>
       </c>
       <c r="C1">
         <v>15</v>
@@ -360,7 +360,7 @@
         <v>15</v>
       </c>
       <c r="E1">
-        <v>0.9934017226822899</v>
+        <v>0.9725630879402161</v>
       </c>
     </row>
   </sheetData>
